--- a/backend/xlsForms/COVID-19.xlsx
+++ b/backend/xlsForms/COVID-19.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="404">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -240,6 +240,12 @@
     <t xml:space="preserve">select_one yes_no</t>
   </si>
   <si>
+    <t xml:space="preserve">death_caused_covid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there any death occurred that is suspected to be caused by CORONA</t>
+  </si>
+  <si>
     <t xml:space="preserve">visitor_outside_country_region</t>
   </si>
   <si>
@@ -348,6 +354,56 @@
     <t xml:space="preserve">What is your name</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">select_one </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">employment_status</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">employment_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your employment status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where_work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where do you work</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">employment_status}=’employed’ or ${employment_status}=’self_employed’</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">traveled_out</t>
   </si>
   <si>
@@ -450,13 +506,38 @@
     <t xml:space="preserve">Is there anyone in the household or neighbouring community experiencing the similar symptoms and illness</t>
   </si>
   <si>
+    <t xml:space="preserve">repeat_other_ppl_experiencing_sympt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${other_people_experiencing_similar_symptoms}=’yes’</t>
+  </si>
+  <si>
     <t xml:space="preserve">list_other_people_experiencing_similar_symptoms</t>
   </si>
   <si>
     <t xml:space="preserve">Mention the name of the person or household for contact tracing as provided</t>
   </si>
   <si>
-    <t xml:space="preserve">${other_people_experiencing_similar_symptoms}=’yes’</t>
+    <t xml:space="preserve">phone_other_people_experiencing_similar_symptoms</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">what is the phone number for ${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">list_other_people_experiencing_similar_symptoms}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">grp_learning</t>
@@ -465,7 +546,7 @@
     <t xml:space="preserve">${visit_objectives}=’covid_key_messages’</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one learning_menu</t>
+    <t xml:space="preserve">select_multiple learning_menu</t>
   </si>
   <si>
     <t xml:space="preserve">learning_menu</t>
@@ -480,7 +561,26 @@
     <t xml:space="preserve">Mlipuko wa ugonjwa wa Homa Kali ya Mapafu inayosababishwa na virusi vipya jamii ya Corona “Novel (New) Corona virus 2019” (COVID - 19) unaoendelea nchini China tangu tarehe 31 Desemba, 2019.</t>
   </si>
   <si>
-    <t xml:space="preserve">${learning_menu}=’history’</t>
+    <t xml:space="preserve">Historia ya COVID-19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">selected(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${learning_menu}, ’history’)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Hist_2</t>
@@ -495,7 +595,26 @@
     <t xml:space="preserve">COVID-19 ni miongoni mwa magonjwa ya mlipuko unaopelekea Homa kali ya Mapafu na unasababishwa na Virusi vipya jamii ya Corona “Novel (New) Corona virus 2019”.</t>
   </si>
   <si>
-    <t xml:space="preserve">${learning_menu}=’learning_meaning’</t>
+    <t xml:space="preserve">Maana ya COVID-19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">selected(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${learning_menu}, ’learning_meaning’)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">learning_meaning_2</t>
@@ -510,7 +629,26 @@
     <t xml:space="preserve">Homa, mafua, kuumwa kichwa, mwili kuchoka, kikohozi, kubanwa mbavu, maumivu ya misuli, vidonda vya koo, kupumua kwa shida na hata kifo.</t>
   </si>
   <si>
-    <t xml:space="preserve">${learning_menu}=’learning_symptoms’</t>
+    <t xml:space="preserve">Dalili za COVID-19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">selected(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${learning_menu}, ’learning_symptoms’)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">learning_symptoms_2</t>
@@ -543,7 +681,26 @@
     <t xml:space="preserve">Matibabu ya ugonjwa huu huzingatia dalili alizonazo mgonjwa na hutolewa katika vituo maalum vilivyoandaliwa kwa ajili ya kutoa matibabu haya kwa wahisiwa na waliothibitika kuwa na Virusi vya Corona</t>
   </si>
   <si>
-    <t xml:space="preserve">${learning_menu}=’learning_treatment’</t>
+    <t xml:space="preserve">Matibabu ya COVID-19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">selected(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${learning_menu}, ’learning_treatment’)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">learning_treatment_2</t>
@@ -552,13 +709,32 @@
     <t xml:space="preserve">Hivyo, kama yalivyo magonjwa mengine yanayosababishwa na Virusi, matibabu hufanyika kwa kuzingatia dalili zilizopo na ufuatiliaji wa karibu</t>
   </si>
   <si>
+    <t xml:space="preserve">Namna COVID-19 inavyoenea</t>
+  </si>
+  <si>
     <t xml:space="preserve">learning_transmission_1</t>
   </si>
   <si>
     <t xml:space="preserve">Kupitia majimaji yanayotoka katika njia ya hewa ambayo mtu mwenye virusi vya Corona anaweza kuyatoa wakati wa kukohoa, kupiga chafya au kupitia majimaji yanayotoka puani (kamasi).</t>
   </si>
   <si>
-    <t xml:space="preserve">${learning_menu}=’learning_transmission’</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">selected(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${learning_menu}, ’learning_transmission’)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">learning_transmission_2</t>
@@ -573,7 +749,26 @@
     <t xml:space="preserve">Kuzingatia kanuni za afya na usafi ikiwa ni pamoja na kukaa mbali na mtu mwenye dalili za mafua na mwenye historia ya kusafiri katika nchi zilizokumbwa na mlipuko au mwenye dalili zilizotajwa</t>
   </si>
   <si>
-    <t xml:space="preserve">${learning_menu}=’learning_protection’</t>
+    <t xml:space="preserve">Jinsi ya kujikinga na COVID-19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">selected(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${learning_menu}, ’learning_protection’)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">learning_protection_2</t>
@@ -621,7 +816,23 @@
     <t xml:space="preserve">Kwa taarifa na elimu piga simu namba 199 badala ya namba 0800110124 au 0800110037 zilizokua zikitumika</t>
   </si>
   <si>
-    <t xml:space="preserve">${learning_menu}=’learning_contact’</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">selected(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${learning_menu}, ’learning_contact’)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">learning_contact_2</t>
@@ -810,10 +1021,25 @@
     <t xml:space="preserve">Divorced</t>
   </si>
   <si>
+    <t xml:space="preserve">employed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">self_employed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self Employed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not_working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not working</t>
+  </si>
+  <si>
     <t xml:space="preserve">history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historia ya COVID-19</t>
   </si>
   <si>
     <r>
@@ -835,31 +1061,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Maana ya COVID-19</t>
-  </si>
-  <si>
     <t xml:space="preserve">learning_symptoms</t>
   </si>
   <si>
-    <t xml:space="preserve">Dalili za COVID-19</t>
-  </si>
-  <si>
     <t xml:space="preserve">learning_treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">Matibabu ya COVID-19</t>
-  </si>
-  <si>
     <t xml:space="preserve">learning_transmission</t>
   </si>
   <si>
-    <t xml:space="preserve">Namna COVID-19 inavyoenea</t>
-  </si>
-  <si>
     <t xml:space="preserve">learning_protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinsi ya kujikinga na COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">learning_contact</t>
@@ -1296,11 +1507,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1329,10 +1540,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G62" activeCellId="0" sqref="G62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E80" activeCellId="0" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1728,38 +1939,35 @@
       <c r="C27" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="0" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>75</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="H29" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>78</v>
@@ -1773,31 +1981,34 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>80</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="G33" s="0" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1847,34 +2058,34 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>80</v>
+        <v>65</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="H40" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>100</v>
@@ -1882,13 +2093,10 @@
       <c r="C41" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="0" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>102</v>
@@ -1896,10 +2104,13 @@
       <c r="C42" s="0" t="s">
         <v>103</v>
       </c>
+      <c r="F42" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>104</v>
@@ -1910,7 +2121,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>106</v>
@@ -1918,13 +2129,10 @@
       <c r="C44" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="F44" s="0" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>108</v>
@@ -1938,33 +2146,33 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F46" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="C47" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="F47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,22 +2199,25 @@
       <c r="C49" s="0" t="s">
         <v>119</v>
       </c>
+      <c r="F49" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="H49" s="0" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2014,16 +2225,13 @@
         <v>71</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,16 +2239,13 @@
         <v>41</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2048,27 +2253,30 @@
         <v>41</v>
       </c>
       <c r="B53" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H53" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="C54" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="0" t="s">
-        <v>133</v>
+      <c r="F54" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2076,221 +2284,218 @@
         <v>41</v>
       </c>
       <c r="B55" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>135</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>24</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>137</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="H58" s="0" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>80</v>
+        <v>99</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="F63" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H64" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B65" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>157</v>
+      <c r="F64" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="H69" s="0" t="s">
         <v>162</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E71" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="H71" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>171</v>
@@ -2298,41 +2503,50 @@
       <c r="C72" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="H72" s="0" t="s">
-        <v>173</v>
+      <c r="E72" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="E73" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="H73" s="0" t="s">
-        <v>173</v>
+      <c r="H73" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>179</v>
@@ -2340,13 +2554,16 @@
       <c r="C75" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="H75" s="0" t="s">
-        <v>178</v>
+      <c r="E75" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>181</v>
@@ -2354,210 +2571,339 @@
       <c r="C76" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="H76" s="0" t="s">
-        <v>183</v>
+      <c r="E76" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B77" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>183</v>
+      <c r="E77" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B78" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="E78" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="H78" s="0" t="s">
-        <v>183</v>
+      <c r="H78" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B79" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C80" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H80" s="0" t="s">
-        <v>183</v>
+      <c r="E80" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>183</v>
+        <v>196</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>183</v>
+        <v>198</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G83" s="0" t="s">
-        <v>83</v>
+        <v>201</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="H84" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>199</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B85" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="H86" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>199</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H87" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>199</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="H88" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>199</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="H89" s="0" t="s">
-        <v>199</v>
+        <v>213</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>80</v>
+        <v>99</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>80</v>
+        <v>99</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="G92" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="G98" s="0" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2577,10 +2923,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="1" sqref="E80 C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2595,7 +2941,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -2607,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2615,10 +2961,10 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2626,10 +2972,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2637,1004 +2983,1037 @@
         <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>264</v>
+        <v>111</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>281</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>266</v>
+        <v>111</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>283</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>269</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>270</v>
+        <v>159</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>272</v>
+        <v>159</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>273</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>275</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>211</v>
+        <v>308</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>279</v>
+        <v>310</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>211</v>
+        <v>311</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>281</v>
+        <v>313</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>211</v>
+        <v>311</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>283</v>
+        <v>315</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>211</v>
+        <v>311</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>285</v>
+        <v>317</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>211</v>
+        <v>311</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>287</v>
+        <v>310</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>290</v>
+        <v>320</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="C55" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="E55" s="0" t="s">
         <v>309</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>384</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>386</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>359</v>
+        <v>388</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>388</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>292</v>
+        <v>385</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>361</v>
+        <v>391</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>392</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>292</v>
+        <v>387</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>363</v>
+        <v>394</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>394</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>292</v>
+        <v>390</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>365</v>
+        <v>396</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>396</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="E90" s="0" t="s">
-        <v>373</v>
+        <v>391</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3656,7 +4035,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="E80 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3666,24 +4045,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
